--- a/Mifos Automation Excels/Client/4472-RBI-ACTCTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JANWITHSTAFF-COLLSHEETON09JAN-WITHOTHERSTAFF.xlsx
+++ b/Mifos Automation Excels/Client/4472-RBI-ACTCTR-MEET-WEEKLYonFRI-ACTGRP-ACTCLIENT-DISJLG02JANWITHSTAFF-COLLSHEETON09JAN-WITHOTHERSTAFF.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="5"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>submittedon</t>
   </si>
@@ -226,12 +221,6 @@
     <t>collectionstaff</t>
   </si>
   <si>
-    <t>selectcenter</t>
-  </si>
-  <si>
-    <t>selectgroup</t>
-  </si>
-  <si>
     <t>previewCollectionSheet</t>
   </si>
   <si>
@@ -247,9 +236,6 @@
     <t>Groups4472</t>
   </si>
   <si>
-    <t>Collection sheet cannot be generated for center/group without Proper Staff</t>
-  </si>
-  <si>
     <t>clickonmorebutton</t>
   </si>
   <si>
@@ -275,12 +261,15 @@
   </si>
   <si>
     <t>FRI</t>
+  </si>
+  <si>
+    <t>Collection sheet cannot be generated for center/group without attach meeting define</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -480,7 +469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -513,26 +502,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,23 +537,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -776,7 +731,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -821,7 +776,7 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -829,7 +784,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>3</v>
@@ -837,7 +792,7 @@
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" s="5">
         <v>42005</v>
@@ -845,15 +800,15 @@
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11" s="21">
         <v>1</v>
@@ -861,15 +816,15 @@
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
         <v>79</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
@@ -908,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +891,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1216,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1919,13 +1874,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
@@ -1948,39 +1906,23 @@
         <v>65</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>71</v>
+      <c r="B4" s="19" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
+      <c r="B5" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
